--- a/Code/Results/Cases/Case_5_199/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_199/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.96781324182371</v>
+        <v>11.04297822947448</v>
       </c>
       <c r="C2">
-        <v>7.63630504596123</v>
+        <v>8.908426769806731</v>
       </c>
       <c r="D2">
-        <v>5.461456939607603</v>
+        <v>6.03857093891686</v>
       </c>
       <c r="E2">
-        <v>7.746260415004746</v>
+        <v>12.59899722849443</v>
       </c>
       <c r="F2">
-        <v>20.28824186070791</v>
+        <v>28.63153133745537</v>
       </c>
       <c r="I2">
-        <v>16.62103865809226</v>
+        <v>25.91616189452966</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.23735958836873</v>
+        <v>8.51000187259174</v>
       </c>
       <c r="L2">
-        <v>6.376997697438271</v>
+        <v>10.1822836943188</v>
       </c>
       <c r="M2">
-        <v>9.37522979736868</v>
+        <v>13.6091953609692</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.88010451600465</v>
+        <v>25.73360879268861</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.11699012025978</v>
+        <v>10.79659435792799</v>
       </c>
       <c r="C3">
-        <v>7.527395969890787</v>
+        <v>8.874182159500284</v>
       </c>
       <c r="D3">
-        <v>5.323986801359418</v>
+        <v>5.990179931017917</v>
       </c>
       <c r="E3">
-        <v>7.769559819323174</v>
+        <v>12.62948369414344</v>
       </c>
       <c r="F3">
-        <v>20.09346805683438</v>
+        <v>28.68832341867683</v>
       </c>
       <c r="I3">
-        <v>16.78461353625922</v>
+        <v>26.01196085566699</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.64713334415611</v>
+        <v>8.322947988888183</v>
       </c>
       <c r="L3">
-        <v>6.297103787399997</v>
+        <v>10.19043898025132</v>
       </c>
       <c r="M3">
-        <v>9.039703541847681</v>
+        <v>13.57305300077471</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.93463776431523</v>
+        <v>25.81635565935152</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.56378531057655</v>
+        <v>10.64411892195424</v>
       </c>
       <c r="C4">
-        <v>7.459770157659131</v>
+        <v>8.852898917258008</v>
       </c>
       <c r="D4">
-        <v>5.237240333409696</v>
+        <v>5.959787623883936</v>
       </c>
       <c r="E4">
-        <v>7.787491654826193</v>
+        <v>12.64984224821202</v>
       </c>
       <c r="F4">
-        <v>19.99018163753231</v>
+        <v>28.72990042667999</v>
       </c>
       <c r="I4">
-        <v>16.89587216200839</v>
+        <v>26.07520621252327</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.267120769128</v>
+        <v>8.207052698407322</v>
       </c>
       <c r="L4">
-        <v>6.250406875757954</v>
+        <v>10.196834249862</v>
       </c>
       <c r="M4">
-        <v>8.830535950893124</v>
+        <v>13.55267232263872</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.98092527299749</v>
+        <v>25.87207355515969</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.33057707264323</v>
+        <v>10.58177202474388</v>
       </c>
       <c r="C5">
-        <v>7.432035373959613</v>
+        <v>8.844163446659882</v>
       </c>
       <c r="D5">
-        <v>5.201329704510436</v>
+        <v>5.947236017612798</v>
       </c>
       <c r="E5">
-        <v>7.795690732612476</v>
+        <v>12.65855117777669</v>
       </c>
       <c r="F5">
-        <v>19.95211755152897</v>
+        <v>28.74852682541448</v>
       </c>
       <c r="I5">
-        <v>16.9438376863093</v>
+        <v>26.10209152440321</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.10790876261716</v>
+        <v>8.159627079494948</v>
       </c>
       <c r="L5">
-        <v>6.231979461619043</v>
+        <v>10.19978990835933</v>
       </c>
       <c r="M5">
-        <v>8.744630002101395</v>
+        <v>13.54482817205539</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.00288878267208</v>
+        <v>25.89601247502327</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.29138279544612</v>
+        <v>10.57140921805451</v>
       </c>
       <c r="C6">
-        <v>7.427419756438389</v>
+        <v>8.842709225808324</v>
       </c>
       <c r="D6">
-        <v>5.19533374851384</v>
+        <v>5.945141909668259</v>
       </c>
       <c r="E6">
-        <v>7.79710545891657</v>
+        <v>12.66002222161827</v>
       </c>
       <c r="F6">
-        <v>19.94603781529666</v>
+        <v>28.75172130437065</v>
       </c>
       <c r="I6">
-        <v>16.95195830411816</v>
+        <v>26.10662298444678</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.08121131560623</v>
+        <v>8.151742118363218</v>
       </c>
       <c r="L6">
-        <v>6.22895619642432</v>
+        <v>10.20030181860284</v>
       </c>
       <c r="M6">
-        <v>8.73032887036428</v>
+        <v>13.54355367049494</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.0067196613149</v>
+        <v>25.90006196588904</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.56067169012901</v>
+        <v>10.64327882869927</v>
       </c>
       <c r="C7">
-        <v>7.459396814388978</v>
+        <v>8.852781357276275</v>
       </c>
       <c r="D7">
-        <v>5.236758262694153</v>
+        <v>5.959619016684732</v>
       </c>
       <c r="E7">
-        <v>7.787598646248887</v>
+        <v>12.64995802862988</v>
       </c>
       <c r="F7">
-        <v>19.98965209698191</v>
+        <v>28.73014481691929</v>
       </c>
       <c r="I7">
-        <v>16.89650852760731</v>
+        <v>26.07556429382877</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.26499109668528</v>
+        <v>8.206413811330169</v>
       </c>
       <c r="L7">
-        <v>6.250155909016826</v>
+        <v>10.19687269499209</v>
       </c>
       <c r="M7">
-        <v>8.829379926986174</v>
+        <v>13.55256465916673</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.98120908035751</v>
+        <v>25.87239141172276</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.68082255511927</v>
+        <v>10.95832512890254</v>
       </c>
       <c r="C8">
-        <v>7.598917661947096</v>
+        <v>8.896673885170205</v>
       </c>
       <c r="D8">
-        <v>5.414558579374651</v>
+        <v>6.022029543047414</v>
       </c>
       <c r="E8">
-        <v>7.753529346662629</v>
+        <v>12.60916883306042</v>
       </c>
       <c r="F8">
-        <v>20.21765840739667</v>
+        <v>28.6497196790947</v>
       </c>
       <c r="I8">
-        <v>16.67513425664354</v>
+        <v>25.94827494846884</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.03754414162263</v>
+        <v>8.445760528502083</v>
       </c>
       <c r="L8">
-        <v>6.348966549652251</v>
+        <v>10.18480792100555</v>
       </c>
       <c r="M8">
-        <v>9.260265835205596</v>
+        <v>13.59636119950379</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.89617826461107</v>
+        <v>25.7611197638856</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.63457450460101</v>
+        <v>11.5629375680847</v>
       </c>
       <c r="C9">
-        <v>7.865983788539917</v>
+        <v>8.980612265258522</v>
       </c>
       <c r="D9">
-        <v>5.743567302146556</v>
+        <v>6.138827366896582</v>
       </c>
       <c r="E9">
-        <v>7.716401573507511</v>
+        <v>12.54217726433015</v>
       </c>
       <c r="F9">
-        <v>20.7969209055919</v>
+        <v>28.54533338721687</v>
       </c>
       <c r="I9">
-        <v>16.33142979496801</v>
+        <v>25.7337770199134</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.41036215049176</v>
+        <v>8.904112479171697</v>
       </c>
       <c r="L9">
-        <v>6.561003489606675</v>
+        <v>10.17213579006331</v>
       </c>
       <c r="M9">
-        <v>10.07534933845426</v>
+        <v>13.69634651108435</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.83640641856936</v>
+        <v>25.58194735001221</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.92422641221193</v>
+        <v>11.99441598483743</v>
       </c>
       <c r="C10">
-        <v>8.057551916490818</v>
+        <v>9.040853725767345</v>
       </c>
       <c r="D10">
-        <v>5.971996464335865</v>
+        <v>6.220979651241355</v>
       </c>
       <c r="E10">
-        <v>7.708490574493145</v>
+        <v>12.50086098351656</v>
       </c>
       <c r="F10">
-        <v>21.30610758608189</v>
+        <v>28.50128037746873</v>
       </c>
       <c r="I10">
-        <v>16.14070337934215</v>
+        <v>25.59760700412099</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.33009609131887</v>
+        <v>9.230710984420641</v>
       </c>
       <c r="L10">
-        <v>6.727285648836599</v>
+        <v>10.16948654731728</v>
       </c>
       <c r="M10">
-        <v>10.65031718845182</v>
+        <v>13.77802261617274</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.86514842643144</v>
+        <v>25.47418913155712</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.47981209801386</v>
+        <v>12.18704041500555</v>
       </c>
       <c r="C11">
-        <v>8.143570734028192</v>
+        <v>9.06792202809431</v>
       </c>
       <c r="D11">
-        <v>6.072794683880159</v>
+        <v>6.257506367075069</v>
       </c>
       <c r="E11">
-        <v>7.709376007400399</v>
+        <v>12.48377663380294</v>
       </c>
       <c r="F11">
-        <v>21.55635389578029</v>
+        <v>28.48834414320971</v>
       </c>
       <c r="I11">
-        <v>16.06893398550176</v>
+        <v>25.54031461227211</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.72898036678812</v>
+        <v>9.376421774492183</v>
       </c>
       <c r="L11">
-        <v>6.805066588909689</v>
+        <v>10.16971840152527</v>
       </c>
       <c r="M11">
-        <v>10.95506081458382</v>
+        <v>13.81687589485268</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.89560934117573</v>
+        <v>25.43036949716309</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.68577432746163</v>
+        <v>12.25938774354633</v>
       </c>
       <c r="C12">
-        <v>8.17597280108596</v>
+        <v>9.078121432154097</v>
       </c>
       <c r="D12">
-        <v>6.11049954519249</v>
+        <v>6.271212279741432</v>
       </c>
       <c r="E12">
-        <v>7.710379412850865</v>
+        <v>12.47755286245489</v>
       </c>
       <c r="F12">
-        <v>21.65381665709972</v>
+        <v>28.48446746422086</v>
       </c>
       <c r="I12">
-        <v>16.04405334589239</v>
+        <v>25.51928884190439</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.87721486270175</v>
+        <v>9.431136848611516</v>
       </c>
       <c r="L12">
-        <v>6.834815247598764</v>
+        <v>10.17001190338481</v>
       </c>
       <c r="M12">
-        <v>11.0821579816505</v>
+        <v>13.83182492675009</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.9097763097559</v>
+        <v>25.41452524178055</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.64161280498821</v>
+        <v>12.24383398330517</v>
       </c>
       <c r="C13">
-        <v>8.169002196350068</v>
+        <v>9.075927105727187</v>
       </c>
       <c r="D13">
-        <v>6.10240007326089</v>
+        <v>6.268266138781129</v>
       </c>
       <c r="E13">
-        <v>7.710133222881292</v>
+        <v>12.47888234002376</v>
       </c>
       <c r="F13">
-        <v>21.63270592698896</v>
+        <v>28.48525692147311</v>
       </c>
       <c r="I13">
-        <v>16.04930735621086</v>
+        <v>25.52378732582814</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.84541514163519</v>
+        <v>9.419374320355303</v>
       </c>
       <c r="L13">
-        <v>6.828395434543584</v>
+        <v>10.16993955954614</v>
       </c>
       <c r="M13">
-        <v>11.05489656815986</v>
+        <v>13.82859501478134</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.90660604036261</v>
+        <v>25.41790423754893</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.49684518034559</v>
+        <v>12.19300478520256</v>
       </c>
       <c r="C14">
-        <v>8.14623995631373</v>
+        <v>9.068762171018363</v>
       </c>
       <c r="D14">
-        <v>6.075906101128653</v>
+        <v>6.258636510566619</v>
       </c>
       <c r="E14">
-        <v>7.709445033693443</v>
+        <v>12.48325967784967</v>
       </c>
       <c r="F14">
-        <v>21.56431799565824</v>
+        <v>28.48800472352998</v>
       </c>
       <c r="I14">
-        <v>16.0668401727847</v>
+        <v>25.53857138559162</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.74123213559892</v>
+        <v>9.380932764264323</v>
       </c>
       <c r="L14">
-        <v>6.807508194700751</v>
+        <v>10.16973843113989</v>
       </c>
       <c r="M14">
-        <v>10.96556732104252</v>
+        <v>13.81810107549035</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.89672136094432</v>
+        <v>25.42905095546769</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.40759576727671</v>
+        <v>12.16179092427907</v>
       </c>
       <c r="C15">
-        <v>8.132274847169956</v>
+        <v>9.064366755623228</v>
       </c>
       <c r="D15">
-        <v>6.059616713426143</v>
+        <v>6.252721549824491</v>
       </c>
       <c r="E15">
-        <v>7.70911120238776</v>
+        <v>12.48597291252325</v>
       </c>
       <c r="F15">
-        <v>21.52278059825485</v>
+        <v>28.48982092971019</v>
       </c>
       <c r="I15">
-        <v>16.0778829645254</v>
+        <v>25.54771427247388</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.67705039178239</v>
+        <v>9.357324523621054</v>
       </c>
       <c r="L15">
-        <v>6.794752162408789</v>
+        <v>10.16964199371841</v>
       </c>
       <c r="M15">
-        <v>10.91052462179467</v>
+        <v>13.81170374187678</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.89101339409031</v>
+        <v>25.43597626524542</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.88729579403464</v>
+        <v>11.98174788037804</v>
       </c>
       <c r="C16">
-        <v>8.051906886805209</v>
+        <v>9.039077778526664</v>
       </c>
       <c r="D16">
-        <v>5.965344853176092</v>
+        <v>6.218575159949367</v>
       </c>
       <c r="E16">
-        <v>7.70852492643628</v>
+        <v>12.50201188408263</v>
       </c>
       <c r="F16">
-        <v>21.29013010763635</v>
+        <v>28.50226879049661</v>
       </c>
       <c r="I16">
-        <v>16.14570724239415</v>
+        <v>25.60144486344398</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.30363455748353</v>
+        <v>9.221126429140329</v>
       </c>
       <c r="L16">
-        <v>6.722244411058161</v>
+        <v>10.16950023317232</v>
       </c>
       <c r="M16">
-        <v>10.63349527660539</v>
+        <v>13.77551695435379</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.86351887696815</v>
+        <v>25.47715761910206</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.56017785197767</v>
+        <v>11.87030958624783</v>
       </c>
       <c r="C17">
-        <v>8.002308177890972</v>
+        <v>9.023476028716598</v>
       </c>
       <c r="D17">
-        <v>5.906701276178397</v>
+        <v>6.19740786870825</v>
       </c>
       <c r="E17">
-        <v>7.70933024482165</v>
+        <v>12.51228920799178</v>
       </c>
       <c r="F17">
-        <v>21.15219288673003</v>
+        <v>28.51172511029242</v>
       </c>
       <c r="I17">
-        <v>16.19125309789692</v>
+        <v>25.63559880211345</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.0695505928957</v>
+        <v>9.136803147433238</v>
       </c>
       <c r="L17">
-        <v>6.678301760769924</v>
+        <v>10.16978067921021</v>
       </c>
       <c r="M17">
-        <v>10.48537745006644</v>
+        <v>13.75374687163811</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.85119887724935</v>
+        <v>25.50375402767994</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.3690997907252</v>
+        <v>11.80587282400429</v>
       </c>
       <c r="C18">
-        <v>7.973674776464285</v>
+        <v>9.014470852619969</v>
       </c>
       <c r="D18">
-        <v>5.872678709264881</v>
+        <v>6.185153751258059</v>
       </c>
       <c r="E18">
-        <v>7.710214103357115</v>
+        <v>12.51836148360771</v>
       </c>
       <c r="F18">
-        <v>21.07460625538953</v>
+        <v>28.51783277658995</v>
       </c>
       <c r="I18">
-        <v>16.21885217227888</v>
+        <v>25.65568107526719</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.93307556037135</v>
+        <v>9.088036206367684</v>
       </c>
       <c r="L18">
-        <v>6.653229141172111</v>
+        <v>10.17007730344557</v>
       </c>
       <c r="M18">
-        <v>10.39961025038236</v>
+        <v>13.74138566125196</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.84574130982062</v>
+        <v>25.51954095259224</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.30389977624201</v>
+        <v>11.78399937725238</v>
       </c>
       <c r="C19">
-        <v>7.963962177903973</v>
+        <v>9.011416526620122</v>
       </c>
       <c r="D19">
-        <v>5.861109603628504</v>
+        <v>6.18099124436279</v>
       </c>
       <c r="E19">
-        <v>7.710584907001078</v>
+        <v>12.52044511750799</v>
       </c>
       <c r="F19">
-        <v>21.0486367108948</v>
+        <v>28.52001554283626</v>
       </c>
       <c r="I19">
-        <v>16.22843342554151</v>
+        <v>25.66255576594283</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.88655251675305</v>
+        <v>9.071480417109363</v>
       </c>
       <c r="L19">
-        <v>6.644775075842589</v>
+        <v>10.17020100371155</v>
       </c>
       <c r="M19">
-        <v>10.3704745981798</v>
+        <v>13.73722815248252</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.84416915230005</v>
+        <v>25.52497013699667</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.59530289092208</v>
+        <v>11.88220813232203</v>
       </c>
       <c r="C20">
-        <v>8.007599039436769</v>
+        <v>9.025140135814327</v>
       </c>
       <c r="D20">
-        <v>5.912974371832001</v>
+        <v>6.19966939800208</v>
       </c>
       <c r="E20">
-        <v>7.709200812818717</v>
+        <v>12.51117850528045</v>
       </c>
       <c r="F20">
-        <v>21.16669510721334</v>
+        <v>28.51064926164579</v>
       </c>
       <c r="I20">
-        <v>16.1862585349639</v>
+        <v>25.63191773843239</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.09465935490683</v>
+        <v>9.145807459920841</v>
       </c>
       <c r="L20">
-        <v>6.682958715076462</v>
+        <v>10.16973682676211</v>
       </c>
       <c r="M20">
-        <v>10.50120473835763</v>
+        <v>13.75604779458362</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.85234085406001</v>
+        <v>25.50087213492165</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.53948670242307</v>
+        <v>12.20795123940098</v>
       </c>
       <c r="C21">
-        <v>8.152930498749544</v>
+        <v>9.070868083807635</v>
       </c>
       <c r="D21">
-        <v>6.083700776749059</v>
+        <v>6.261468419629221</v>
       </c>
       <c r="E21">
-        <v>7.709628852010581</v>
+        <v>12.48196728169863</v>
       </c>
       <c r="F21">
-        <v>21.58433176119275</v>
+        <v>28.48716988988894</v>
       </c>
       <c r="I21">
-        <v>16.06162686154812</v>
+        <v>25.53421077039987</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.77190962364711</v>
+        <v>9.39223692074137</v>
       </c>
       <c r="L21">
-        <v>6.81363538541184</v>
+        <v>10.16979193254944</v>
       </c>
       <c r="M21">
-        <v>10.99187338992665</v>
+        <v>13.82117705699556</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.89955224730368</v>
+        <v>25.4257565470381</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.13078901797894</v>
+        <v>12.417344283403</v>
       </c>
       <c r="C22">
-        <v>8.246910476530223</v>
+        <v>9.100456837254578</v>
       </c>
       <c r="D22">
-        <v>6.192562017942044</v>
+        <v>6.301121439988389</v>
       </c>
       <c r="E22">
-        <v>7.713813896617232</v>
+        <v>12.46430805188085</v>
       </c>
       <c r="F22">
-        <v>21.8730252172552</v>
+        <v>28.47778152708342</v>
       </c>
       <c r="I22">
-        <v>15.99363170708826</v>
+        <v>25.47425696134854</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.19812895282604</v>
+        <v>9.550576240012875</v>
       </c>
       <c r="L22">
-        <v>6.900752276679254</v>
+        <v>10.17102645477328</v>
       </c>
       <c r="M22">
-        <v>11.35716251212383</v>
+        <v>13.86511524151966</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.94581023886595</v>
+        <v>25.38103224291591</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.81754338216155</v>
+        <v>12.30592907426319</v>
       </c>
       <c r="C23">
-        <v>8.196846129684063</v>
+        <v>9.08469276748435</v>
       </c>
       <c r="D23">
-        <v>6.134714628392521</v>
+        <v>6.280026696536843</v>
       </c>
       <c r="E23">
-        <v>7.711215147206431</v>
+        <v>12.47360218505519</v>
       </c>
       <c r="F23">
-        <v>21.71749745613466</v>
+        <v>28.48224721892075</v>
       </c>
       <c r="I23">
-        <v>16.02864194022853</v>
+        <v>25.50589806074654</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.97214956379027</v>
+        <v>9.466332070887006</v>
       </c>
       <c r="L23">
-        <v>6.854103816136568</v>
+        <v>10.17025823363539</v>
       </c>
       <c r="M23">
-        <v>11.16353193554147</v>
+        <v>13.84154177193549</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.91966866530217</v>
+        <v>25.40450228688665</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.57943225079009</v>
+        <v>11.8768299449183</v>
       </c>
       <c r="C24">
-        <v>8.005207409127184</v>
+        <v>9.024387903460191</v>
       </c>
       <c r="D24">
-        <v>5.910139262039828</v>
+        <v>6.198647224272556</v>
       </c>
       <c r="E24">
-        <v>7.709258019869977</v>
+        <v>12.51168014403427</v>
       </c>
       <c r="F24">
-        <v>21.16013331232583</v>
+        <v>28.51113356242452</v>
       </c>
       <c r="I24">
-        <v>16.18851218266072</v>
+        <v>25.63358055586037</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.08331359168172</v>
+        <v>9.141737504510663</v>
       </c>
       <c r="L24">
-        <v>6.680852711396304</v>
+        <v>10.16975623065489</v>
       </c>
       <c r="M24">
-        <v>10.49405112332928</v>
+        <v>13.75500706483616</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.85181951370159</v>
+        <v>25.50217349281432</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.13180675142465</v>
+        <v>11.40128735973736</v>
       </c>
       <c r="C25">
-        <v>7.794506318241444</v>
+        <v>8.958146278129279</v>
       </c>
       <c r="D25">
-        <v>5.656809748726265</v>
+        <v>6.107855067381946</v>
       </c>
       <c r="E25">
-        <v>7.723137750669687</v>
+        <v>12.55891101244201</v>
       </c>
       <c r="F25">
-        <v>20.62571401761241</v>
+        <v>28.56784812859134</v>
       </c>
       <c r="I25">
-        <v>16.41406860260317</v>
+        <v>25.78804359965015</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.05447396835523</v>
+        <v>8.781662443960291</v>
       </c>
       <c r="L25">
-        <v>6.50174949005915</v>
+        <v>10.17439123026906</v>
       </c>
       <c r="M25">
-        <v>9.858676641455745</v>
+        <v>13.66782606666564</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.84035911932326</v>
+        <v>25.626230619608</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_199/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_199/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.04297822947448</v>
+        <v>12.96781324182367</v>
       </c>
       <c r="C2">
-        <v>8.908426769806731</v>
+        <v>7.636305045961225</v>
       </c>
       <c r="D2">
-        <v>6.03857093891686</v>
+        <v>5.461456939607594</v>
       </c>
       <c r="E2">
-        <v>12.59899722849443</v>
+        <v>7.746260415004808</v>
       </c>
       <c r="F2">
-        <v>28.63153133745537</v>
+        <v>20.28824186070785</v>
       </c>
       <c r="I2">
-        <v>25.91616189452966</v>
+        <v>16.62103865809226</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.51000187259174</v>
+        <v>11.23735958836875</v>
       </c>
       <c r="L2">
-        <v>10.1822836943188</v>
+        <v>6.376997697438267</v>
       </c>
       <c r="M2">
-        <v>13.6091953609692</v>
+        <v>9.375229797368695</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.73360879268861</v>
+        <v>16.8801045160046</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.79659435792799</v>
+        <v>12.1169901202598</v>
       </c>
       <c r="C3">
-        <v>8.874182159500284</v>
+        <v>7.52739596989078</v>
       </c>
       <c r="D3">
-        <v>5.990179931017917</v>
+        <v>5.323986801359487</v>
       </c>
       <c r="E3">
-        <v>12.62948369414344</v>
+        <v>7.769559819323121</v>
       </c>
       <c r="F3">
-        <v>28.68832341867683</v>
+        <v>20.09346805683418</v>
       </c>
       <c r="I3">
-        <v>26.01196085566699</v>
+        <v>16.78461353625904</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.322947988888183</v>
+        <v>10.64713334415611</v>
       </c>
       <c r="L3">
-        <v>10.19043898025132</v>
+        <v>6.297103787399945</v>
       </c>
       <c r="M3">
-        <v>13.57305300077471</v>
+        <v>9.039703541847659</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.81635565935152</v>
+        <v>16.93463776431503</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.64411892195424</v>
+        <v>11.56378531057647</v>
       </c>
       <c r="C4">
-        <v>8.852898917258008</v>
+        <v>7.459770157659004</v>
       </c>
       <c r="D4">
-        <v>5.959787623883936</v>
+        <v>5.237240333409688</v>
       </c>
       <c r="E4">
-        <v>12.64984224821202</v>
+        <v>7.787491654826193</v>
       </c>
       <c r="F4">
-        <v>28.72990042667999</v>
+        <v>19.99018163753244</v>
       </c>
       <c r="I4">
-        <v>26.07520621252327</v>
+        <v>16.89587216200855</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.207052698407322</v>
+        <v>10.26712076912793</v>
       </c>
       <c r="L4">
-        <v>10.196834249862</v>
+        <v>6.250406875757954</v>
       </c>
       <c r="M4">
-        <v>13.55267232263872</v>
+        <v>8.830535950893131</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.87207355515969</v>
+        <v>16.98092527299765</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.58177202474388</v>
+        <v>11.33057707264325</v>
       </c>
       <c r="C5">
-        <v>8.844163446659882</v>
+        <v>7.432035373959613</v>
       </c>
       <c r="D5">
-        <v>5.947236017612798</v>
+        <v>5.201329704510376</v>
       </c>
       <c r="E5">
-        <v>12.65855117777669</v>
+        <v>7.795690732612486</v>
       </c>
       <c r="F5">
-        <v>28.74852682541448</v>
+        <v>19.95211755152899</v>
       </c>
       <c r="I5">
-        <v>26.10209152440321</v>
+        <v>16.94383768630931</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.159627079494948</v>
+        <v>10.10790876261721</v>
       </c>
       <c r="L5">
-        <v>10.19978990835933</v>
+        <v>6.231979461618995</v>
       </c>
       <c r="M5">
-        <v>13.54482817205539</v>
+        <v>8.744630002101378</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.89601247502327</v>
+        <v>17.00288878267209</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.57140921805451</v>
+        <v>11.29138279544617</v>
       </c>
       <c r="C6">
-        <v>8.842709225808324</v>
+        <v>7.42741975643824</v>
       </c>
       <c r="D6">
-        <v>5.945141909668259</v>
+        <v>5.19533374851406</v>
       </c>
       <c r="E6">
-        <v>12.66002222161827</v>
+        <v>7.797105458916455</v>
       </c>
       <c r="F6">
-        <v>28.75172130437065</v>
+        <v>19.94603781529652</v>
       </c>
       <c r="I6">
-        <v>26.10662298444678</v>
+        <v>16.95195830411803</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.151742118363218</v>
+        <v>10.08121131560618</v>
       </c>
       <c r="L6">
-        <v>10.20030181860284</v>
+        <v>6.228956196424345</v>
       </c>
       <c r="M6">
-        <v>13.54355367049494</v>
+        <v>8.730328870364264</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.90006196588904</v>
+        <v>17.00671966131488</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.64327882869927</v>
+        <v>11.560671690129</v>
       </c>
       <c r="C7">
-        <v>8.852781357276275</v>
+        <v>7.459396814389095</v>
       </c>
       <c r="D7">
-        <v>5.959619016684732</v>
+        <v>5.236758262694265</v>
       </c>
       <c r="E7">
-        <v>12.64995802862988</v>
+        <v>7.78759864624889</v>
       </c>
       <c r="F7">
-        <v>28.73014481691929</v>
+        <v>19.98965209698173</v>
       </c>
       <c r="I7">
-        <v>26.07556429382877</v>
+        <v>16.89650852760733</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.206413811330169</v>
+        <v>10.26499109668528</v>
       </c>
       <c r="L7">
-        <v>10.19687269499209</v>
+        <v>6.250155909016776</v>
       </c>
       <c r="M7">
-        <v>13.55256465916673</v>
+        <v>8.829379926986176</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.87239141172276</v>
+        <v>16.9812090803574</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.95832512890254</v>
+        <v>12.6808225551193</v>
       </c>
       <c r="C8">
-        <v>8.896673885170205</v>
+        <v>7.598917661946718</v>
       </c>
       <c r="D8">
-        <v>6.022029543047414</v>
+        <v>5.414558579374817</v>
       </c>
       <c r="E8">
-        <v>12.60916883306042</v>
+        <v>7.753529346662575</v>
       </c>
       <c r="F8">
-        <v>28.6497196790947</v>
+        <v>20.21765840739668</v>
       </c>
       <c r="I8">
-        <v>25.94827494846884</v>
+        <v>16.67513425664348</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.445760528502083</v>
+        <v>11.03754414162261</v>
       </c>
       <c r="L8">
-        <v>10.18480792100555</v>
+        <v>6.348966549652249</v>
       </c>
       <c r="M8">
-        <v>13.59636119950379</v>
+        <v>9.260265835205582</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.7611197638856</v>
+        <v>16.8961782646111</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.5629375680847</v>
+        <v>14.63457450460105</v>
       </c>
       <c r="C9">
-        <v>8.980612265258522</v>
+        <v>7.865983788540018</v>
       </c>
       <c r="D9">
-        <v>6.138827366896582</v>
+        <v>5.743567302146451</v>
       </c>
       <c r="E9">
-        <v>12.54217726433015</v>
+        <v>7.716401573507625</v>
       </c>
       <c r="F9">
-        <v>28.54533338721687</v>
+        <v>20.79692090559171</v>
       </c>
       <c r="I9">
-        <v>25.7337770199134</v>
+        <v>16.3314297949678</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.904112479171697</v>
+        <v>12.41036215049183</v>
       </c>
       <c r="L9">
-        <v>10.17213579006331</v>
+        <v>6.561003489606684</v>
       </c>
       <c r="M9">
-        <v>13.69634651108435</v>
+        <v>10.07534933845426</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.58194735001221</v>
+        <v>16.83640641856913</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.99441598483743</v>
+        <v>15.92422641221192</v>
       </c>
       <c r="C10">
-        <v>9.040853725767345</v>
+        <v>8.057551916490679</v>
       </c>
       <c r="D10">
-        <v>6.220979651241355</v>
+        <v>5.971996464336142</v>
       </c>
       <c r="E10">
-        <v>12.50086098351656</v>
+        <v>7.708490574493103</v>
       </c>
       <c r="F10">
-        <v>28.50128037746873</v>
+        <v>21.30610758608196</v>
       </c>
       <c r="I10">
-        <v>25.59760700412099</v>
+        <v>16.14070337934228</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.230710984420641</v>
+        <v>13.33009609131882</v>
       </c>
       <c r="L10">
-        <v>10.16948654731728</v>
+        <v>6.727285648836615</v>
       </c>
       <c r="M10">
-        <v>13.77802261617274</v>
+        <v>10.65031718845182</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.47418913155712</v>
+        <v>16.86514842643162</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.18704041500555</v>
+        <v>16.4798120980138</v>
       </c>
       <c r="C11">
-        <v>9.06792202809431</v>
+        <v>8.143570734028186</v>
       </c>
       <c r="D11">
-        <v>6.257506367075069</v>
+        <v>6.072794683880421</v>
       </c>
       <c r="E11">
-        <v>12.48377663380294</v>
+        <v>7.709376007400515</v>
       </c>
       <c r="F11">
-        <v>28.48834414320971</v>
+        <v>21.55635389578041</v>
       </c>
       <c r="I11">
-        <v>25.54031461227211</v>
+        <v>16.06893398550199</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.376421774492183</v>
+        <v>13.72898036678807</v>
       </c>
       <c r="L11">
-        <v>10.16971840152527</v>
+        <v>6.805066588909789</v>
       </c>
       <c r="M11">
-        <v>13.81687589485268</v>
+        <v>10.95506081458375</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.43036949716309</v>
+        <v>16.89560934117594</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.25938774354633</v>
+        <v>16.68577432746159</v>
       </c>
       <c r="C12">
-        <v>9.078121432154097</v>
+        <v>8.175972801086075</v>
       </c>
       <c r="D12">
-        <v>6.271212279741432</v>
+        <v>6.110499545192574</v>
       </c>
       <c r="E12">
-        <v>12.47755286245489</v>
+        <v>7.710379412850809</v>
       </c>
       <c r="F12">
-        <v>28.48446746422086</v>
+        <v>21.65381665709984</v>
       </c>
       <c r="I12">
-        <v>25.51928884190439</v>
+        <v>16.04405334589258</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.431136848611516</v>
+        <v>13.87721486270176</v>
       </c>
       <c r="L12">
-        <v>10.17001190338481</v>
+        <v>6.834815247598741</v>
       </c>
       <c r="M12">
-        <v>13.83182492675009</v>
+        <v>11.08215798165049</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.41452524178055</v>
+        <v>16.90977630975608</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.24383398330517</v>
+        <v>16.64161280498827</v>
       </c>
       <c r="C13">
-        <v>9.075927105727187</v>
+        <v>8.169002196349693</v>
       </c>
       <c r="D13">
-        <v>6.268266138781129</v>
+        <v>6.102400073260983</v>
       </c>
       <c r="E13">
-        <v>12.47888234002376</v>
+        <v>7.710133222881234</v>
       </c>
       <c r="F13">
-        <v>28.48525692147311</v>
+        <v>21.63270592698895</v>
       </c>
       <c r="I13">
-        <v>25.52378732582814</v>
+        <v>16.04930735621081</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.419374320355303</v>
+        <v>13.84541514163518</v>
       </c>
       <c r="L13">
-        <v>10.16993955954614</v>
+        <v>6.828395434543609</v>
       </c>
       <c r="M13">
-        <v>13.82859501478134</v>
+        <v>11.05489656815986</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.41790423754893</v>
+        <v>16.90660604036265</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.19300478520256</v>
+        <v>16.49684518034551</v>
       </c>
       <c r="C14">
-        <v>9.068762171018363</v>
+        <v>8.146239956313948</v>
       </c>
       <c r="D14">
-        <v>6.258636510566619</v>
+        <v>6.075906101128496</v>
       </c>
       <c r="E14">
-        <v>12.48325967784967</v>
+        <v>7.709445033693606</v>
       </c>
       <c r="F14">
-        <v>28.48800472352998</v>
+        <v>21.56431799565821</v>
       </c>
       <c r="I14">
-        <v>25.53857138559162</v>
+        <v>16.06684017278471</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.380932764264323</v>
+        <v>13.74123213559891</v>
       </c>
       <c r="L14">
-        <v>10.16973843113989</v>
+        <v>6.807508194700734</v>
       </c>
       <c r="M14">
-        <v>13.81810107549035</v>
+        <v>10.96556732104246</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.42905095546769</v>
+        <v>16.89672136094426</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.16179092427907</v>
+        <v>16.40759576727677</v>
       </c>
       <c r="C15">
-        <v>9.064366755623228</v>
+        <v>8.132274847169947</v>
       </c>
       <c r="D15">
-        <v>6.252721549824491</v>
+        <v>6.059616713426024</v>
       </c>
       <c r="E15">
-        <v>12.48597291252325</v>
+        <v>7.709111202387812</v>
       </c>
       <c r="F15">
-        <v>28.48982092971019</v>
+        <v>21.52278059825483</v>
       </c>
       <c r="I15">
-        <v>25.54771427247388</v>
+        <v>16.07788296452533</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.357324523621054</v>
+        <v>13.67705039178245</v>
       </c>
       <c r="L15">
-        <v>10.16964199371841</v>
+        <v>6.79475216240883</v>
       </c>
       <c r="M15">
-        <v>13.81170374187678</v>
+        <v>10.91052462179471</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.43597626524542</v>
+        <v>16.89101339409023</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.98174788037804</v>
+        <v>15.88729579403465</v>
       </c>
       <c r="C16">
-        <v>9.039077778526664</v>
+        <v>8.051906886805192</v>
       </c>
       <c r="D16">
-        <v>6.218575159949367</v>
+        <v>5.965344853176155</v>
       </c>
       <c r="E16">
-        <v>12.50201188408263</v>
+        <v>7.708524926436235</v>
       </c>
       <c r="F16">
-        <v>28.50226879049661</v>
+        <v>21.29013010763621</v>
       </c>
       <c r="I16">
-        <v>25.60144486344398</v>
+        <v>16.145707242394</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.221126429140329</v>
+        <v>13.30363455748354</v>
       </c>
       <c r="L16">
-        <v>10.16950023317232</v>
+        <v>6.722244411058121</v>
       </c>
       <c r="M16">
-        <v>13.77551695435379</v>
+        <v>10.63349527660537</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.47715761910206</v>
+        <v>16.86351887696799</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.87030958624783</v>
+        <v>15.56017785197772</v>
       </c>
       <c r="C17">
-        <v>9.023476028716598</v>
+        <v>8.002308177890725</v>
       </c>
       <c r="D17">
-        <v>6.19740786870825</v>
+        <v>5.906701276178506</v>
       </c>
       <c r="E17">
-        <v>12.51228920799178</v>
+        <v>7.709330244821712</v>
       </c>
       <c r="F17">
-        <v>28.51172511029242</v>
+        <v>21.15219288673001</v>
       </c>
       <c r="I17">
-        <v>25.63559880211345</v>
+        <v>16.19125309789687</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.136803147433238</v>
+        <v>13.06955059289571</v>
       </c>
       <c r="L17">
-        <v>10.16978067921021</v>
+        <v>6.678301760769981</v>
       </c>
       <c r="M17">
-        <v>13.75374687163811</v>
+        <v>10.48537745006646</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.50375402767994</v>
+        <v>16.85119887724936</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.80587282400429</v>
+        <v>15.36909979072516</v>
       </c>
       <c r="C18">
-        <v>9.014470852619969</v>
+        <v>7.973674776464764</v>
       </c>
       <c r="D18">
-        <v>6.185153751258059</v>
+        <v>5.872678709264927</v>
       </c>
       <c r="E18">
-        <v>12.51836148360771</v>
+        <v>7.710214103357177</v>
       </c>
       <c r="F18">
-        <v>28.51783277658995</v>
+        <v>21.07460625538941</v>
       </c>
       <c r="I18">
-        <v>25.65568107526719</v>
+        <v>16.2188521722788</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.088036206367684</v>
+        <v>12.93307556037143</v>
       </c>
       <c r="L18">
-        <v>10.17007730344557</v>
+        <v>6.653229141172076</v>
       </c>
       <c r="M18">
-        <v>13.74138566125196</v>
+        <v>10.39961025038235</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.51954095259224</v>
+        <v>16.8457413098205</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.78399937725238</v>
+        <v>15.30389977624208</v>
       </c>
       <c r="C19">
-        <v>9.011416526620122</v>
+        <v>7.963962177903948</v>
       </c>
       <c r="D19">
-        <v>6.18099124436279</v>
+        <v>5.861109603628484</v>
       </c>
       <c r="E19">
-        <v>12.52044511750799</v>
+        <v>7.710584907001093</v>
       </c>
       <c r="F19">
-        <v>28.52001554283626</v>
+        <v>21.04863671089462</v>
       </c>
       <c r="I19">
-        <v>25.66255576594283</v>
+        <v>16.22843342554131</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.071480417109363</v>
+        <v>12.88655251675309</v>
       </c>
       <c r="L19">
-        <v>10.17020100371155</v>
+        <v>6.644775075842595</v>
       </c>
       <c r="M19">
-        <v>13.73722815248252</v>
+        <v>10.37047459817977</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.52497013699667</v>
+        <v>16.84416915229984</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.88220813232203</v>
+        <v>15.5953028909221</v>
       </c>
       <c r="C20">
-        <v>9.025140135814327</v>
+        <v>8.007599039436379</v>
       </c>
       <c r="D20">
-        <v>6.19966939800208</v>
+        <v>5.912974371832104</v>
       </c>
       <c r="E20">
-        <v>12.51117850528045</v>
+        <v>7.709200812818574</v>
       </c>
       <c r="F20">
-        <v>28.51064926164579</v>
+        <v>21.16669510721334</v>
       </c>
       <c r="I20">
-        <v>25.63191773843239</v>
+        <v>16.18625853496379</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.145807459920841</v>
+        <v>13.09465935490674</v>
       </c>
       <c r="L20">
-        <v>10.16973682676211</v>
+        <v>6.682958715076473</v>
       </c>
       <c r="M20">
-        <v>13.75604779458362</v>
+        <v>10.50120473835762</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.50087213492165</v>
+        <v>16.85234085406006</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.20795123940098</v>
+        <v>16.53948670242307</v>
       </c>
       <c r="C21">
-        <v>9.070868083807635</v>
+        <v>8.152930498749649</v>
       </c>
       <c r="D21">
-        <v>6.261468419629221</v>
+        <v>6.08370077674901</v>
       </c>
       <c r="E21">
-        <v>12.48196728169863</v>
+        <v>7.70962885201064</v>
       </c>
       <c r="F21">
-        <v>28.48716988988894</v>
+        <v>21.58433176119268</v>
       </c>
       <c r="I21">
-        <v>25.53421077039987</v>
+        <v>16.06162686154806</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.39223692074137</v>
+        <v>13.77190962364709</v>
       </c>
       <c r="L21">
-        <v>10.16979193254944</v>
+        <v>6.813635385411815</v>
       </c>
       <c r="M21">
-        <v>13.82117705699556</v>
+        <v>10.99187338992664</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.4257565470381</v>
+        <v>16.89955224730357</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.417344283403</v>
+        <v>17.13078901797896</v>
       </c>
       <c r="C22">
-        <v>9.100456837254578</v>
+        <v>8.246910476530195</v>
       </c>
       <c r="D22">
-        <v>6.301121439988389</v>
+        <v>6.192562017942192</v>
       </c>
       <c r="E22">
-        <v>12.46430805188085</v>
+        <v>7.713813896617147</v>
       </c>
       <c r="F22">
-        <v>28.47778152708342</v>
+        <v>21.87302521725519</v>
       </c>
       <c r="I22">
-        <v>25.47425696134854</v>
+        <v>15.99363170708824</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.550576240012875</v>
+        <v>14.19812895282603</v>
       </c>
       <c r="L22">
-        <v>10.17102645477328</v>
+        <v>6.900752276679191</v>
       </c>
       <c r="M22">
-        <v>13.86511524151966</v>
+        <v>11.35716251212386</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.38103224291591</v>
+        <v>16.94581023886597</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.30592907426319</v>
+        <v>16.81754338216157</v>
       </c>
       <c r="C23">
-        <v>9.08469276748435</v>
+        <v>8.196846129684301</v>
       </c>
       <c r="D23">
-        <v>6.280026696536843</v>
+        <v>6.134714628392392</v>
       </c>
       <c r="E23">
-        <v>12.47360218505519</v>
+        <v>7.711215147206444</v>
       </c>
       <c r="F23">
-        <v>28.48224721892075</v>
+        <v>21.7174974561346</v>
       </c>
       <c r="I23">
-        <v>25.50589806074654</v>
+        <v>16.02864194022845</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.466332070887006</v>
+        <v>13.97214956379035</v>
       </c>
       <c r="L23">
-        <v>10.17025823363539</v>
+        <v>6.854103816136496</v>
       </c>
       <c r="M23">
-        <v>13.84154177193549</v>
+        <v>11.16353193554152</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.40450228688665</v>
+        <v>16.91966866530201</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.8768299449183</v>
+        <v>15.57943225079015</v>
       </c>
       <c r="C24">
-        <v>9.024387903460191</v>
+        <v>8.005207409127415</v>
       </c>
       <c r="D24">
-        <v>6.198647224272556</v>
+        <v>5.910139262039663</v>
       </c>
       <c r="E24">
-        <v>12.51168014403427</v>
+        <v>7.709258019870094</v>
       </c>
       <c r="F24">
-        <v>28.51113356242452</v>
+        <v>21.16013331232581</v>
       </c>
       <c r="I24">
-        <v>25.63358055586037</v>
+        <v>16.18851218266069</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.141737504510663</v>
+        <v>13.08331359168184</v>
       </c>
       <c r="L24">
-        <v>10.16975623065489</v>
+        <v>6.680852711396283</v>
       </c>
       <c r="M24">
-        <v>13.75500706483616</v>
+        <v>10.49405112332927</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.50217349281432</v>
+        <v>16.85181951370149</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.40128735973736</v>
+        <v>14.13180675142463</v>
       </c>
       <c r="C25">
-        <v>8.958146278129279</v>
+        <v>7.794506318241689</v>
       </c>
       <c r="D25">
-        <v>6.107855067381946</v>
+        <v>5.656809748726318</v>
       </c>
       <c r="E25">
-        <v>12.55891101244201</v>
+        <v>7.72313775066981</v>
       </c>
       <c r="F25">
-        <v>28.56784812859134</v>
+        <v>20.62571401761213</v>
       </c>
       <c r="I25">
-        <v>25.78804359965015</v>
+        <v>16.41406860260302</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.781662443960291</v>
+        <v>12.05447396835528</v>
       </c>
       <c r="L25">
-        <v>10.17439123026906</v>
+        <v>6.501749490059114</v>
       </c>
       <c r="M25">
-        <v>13.66782606666564</v>
+        <v>9.858676641455736</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.626230619608</v>
+        <v>16.84035911932303</v>
       </c>
     </row>
   </sheetData>
